--- a/Code/Results/Cases/Case_4_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_66/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.48049182089278</v>
+        <v>0.8447786353271454</v>
       </c>
       <c r="C2">
-        <v>0.5970706306113698</v>
+        <v>0.1861055023120173</v>
       </c>
       <c r="D2">
-        <v>0.2039877406927246</v>
+        <v>0.0790056553439058</v>
       </c>
       <c r="E2">
-        <v>0.1968398499960458</v>
+        <v>0.1070133005347813</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007798947422771839</v>
+        <v>0.002412298101118912</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.968882104471696</v>
+        <v>0.3492223880770027</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.317392387370063</v>
+        <v>2.559241357825584</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.152930359182903</v>
+        <v>0.7469369850426801</v>
       </c>
       <c r="C3">
-        <v>0.5250740230060273</v>
+        <v>0.1632408360593445</v>
       </c>
       <c r="D3">
-        <v>0.1764384962077798</v>
+        <v>0.0715886933525951</v>
       </c>
       <c r="E3">
-        <v>0.1716891117123538</v>
+        <v>0.1015708116470222</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007857214252497836</v>
+        <v>0.002415983506122934</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8373724032275263</v>
+        <v>0.3124482855449244</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.126938426047076</v>
+        <v>2.540367486991528</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.952770061020942</v>
+        <v>0.6868693826353081</v>
       </c>
       <c r="C4">
-        <v>0.4809736621586751</v>
+        <v>0.1491385002046854</v>
       </c>
       <c r="D4">
-        <v>0.1597473771900724</v>
+        <v>0.0670720335749877</v>
       </c>
       <c r="E4">
-        <v>0.1567582342280076</v>
+        <v>0.09833168479296006</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007894015408773038</v>
+        <v>0.002418365445566493</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7574564273697675</v>
+        <v>0.2899595116798181</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.017204498277181</v>
+        <v>2.531097262241502</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871391258896807</v>
+        <v>0.6623939359138831</v>
       </c>
       <c r="C5">
-        <v>0.4630184122096352</v>
+        <v>0.1433759593091395</v>
       </c>
       <c r="D5">
-        <v>0.1529946584939381</v>
+        <v>0.06524078403315059</v>
       </c>
       <c r="E5">
-        <v>0.1507882537261054</v>
+        <v>0.0970371897197353</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007909278607933568</v>
+        <v>0.002419366147272076</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7250661283071835</v>
+        <v>0.2808177462020822</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.974152177570375</v>
+        <v>2.527899745928153</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.857888226829971</v>
+        <v>0.6583299836951539</v>
       </c>
       <c r="C6">
-        <v>0.4600376293005297</v>
+        <v>0.1424181501443513</v>
       </c>
       <c r="D6">
-        <v>0.1518761318938573</v>
+        <v>0.06493726754327156</v>
       </c>
       <c r="E6">
-        <v>0.1498034614998645</v>
+        <v>0.09682376911598567</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007911829384493752</v>
+        <v>0.002419534130498324</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7196974625743948</v>
+        <v>0.2793011216366779</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.967099841436777</v>
+        <v>2.527403759838535</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.951671864944387</v>
+        <v>0.6865392867911453</v>
       </c>
       <c r="C7">
-        <v>0.4807314599827066</v>
+        <v>0.1490608479560649</v>
       </c>
       <c r="D7">
-        <v>0.1596561184111494</v>
+        <v>0.06704729903968598</v>
       </c>
       <c r="E7">
-        <v>0.1566772754978274</v>
+        <v>0.09831412405240059</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007894220163973353</v>
+        <v>0.002418378819589132</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7570189292234062</v>
+        <v>0.2898361314247779</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.016617324200865</v>
+        <v>2.531051794047016</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.367314594625213</v>
+        <v>0.8110416393366791</v>
       </c>
       <c r="C8">
-        <v>0.5722175539092405</v>
+        <v>0.1782350242866926</v>
       </c>
       <c r="D8">
-        <v>0.1944376430848678</v>
+        <v>0.07644048017949956</v>
       </c>
       <c r="E8">
-        <v>0.1880527484425158</v>
+        <v>0.1051152445365986</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007818830464767536</v>
+        <v>0.002413544170951445</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.923344311448453</v>
+        <v>0.336523719514048</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.250136766979637</v>
+        <v>2.552250758640952</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.192739474539565</v>
+        <v>1.055233440527388</v>
       </c>
       <c r="C9">
-        <v>0.7529949402862144</v>
+        <v>0.2349369906712298</v>
       </c>
       <c r="D9">
-        <v>0.2647840061073197</v>
+        <v>0.09516147321394897</v>
       </c>
       <c r="E9">
-        <v>0.2543448009201512</v>
+        <v>0.1192813758646452</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007678701292966737</v>
+        <v>0.002405003900566905</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.257743115416872</v>
+        <v>0.4288118281979081</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.772434329594773</v>
+        <v>2.612350048252438</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.809674517605458</v>
+        <v>1.234664091416676</v>
       </c>
       <c r="C10">
-        <v>0.8874817952752494</v>
+        <v>0.2762822943695085</v>
       </c>
       <c r="D10">
-        <v>0.3183233905500487</v>
+        <v>0.1091067444823608</v>
       </c>
       <c r="E10">
-        <v>0.3070421660532361</v>
+        <v>0.1302168616632216</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007579803648479054</v>
+        <v>0.002399296475996046</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.510976050905157</v>
+        <v>0.4970905578935856</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.206390075592793</v>
+        <v>2.667992631489426</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.0936621570836</v>
+        <v>1.316297573398799</v>
       </c>
       <c r="C11">
-        <v>0.9492362000843571</v>
+        <v>0.2950228324378088</v>
       </c>
       <c r="D11">
-        <v>0.3432197781187796</v>
+        <v>0.1154939721189976</v>
       </c>
       <c r="E11">
-        <v>0.3321584721380191</v>
+        <v>0.1353111270698832</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007535533753570946</v>
+        <v>0.002396821837240383</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.628454669054108</v>
+        <v>0.5282618005665398</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.41745811666209</v>
+        <v>2.695842307814928</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.201778456797115</v>
+        <v>1.347211107082046</v>
       </c>
       <c r="C12">
-        <v>0.9727233383322584</v>
+        <v>0.3021095396570104</v>
       </c>
       <c r="D12">
-        <v>0.3527378760386739</v>
+        <v>0.1179190041329292</v>
       </c>
       <c r="E12">
-        <v>0.3418600614352485</v>
+        <v>0.1372577730138147</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007518858614562503</v>
+        <v>0.00239590215523966</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.673328524215762</v>
+        <v>0.5400818629507285</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.499605645033398</v>
+        <v>2.706756392010107</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.178466404522396</v>
+        <v>1.340553303561023</v>
       </c>
       <c r="C13">
-        <v>0.967660091652732</v>
+        <v>0.3005837351251728</v>
       </c>
       <c r="D13">
-        <v>0.3506837495399822</v>
+        <v>0.1173964474182156</v>
       </c>
       <c r="E13">
-        <v>0.339761725067973</v>
+        <v>0.1368377414523039</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007522446197306538</v>
+        <v>0.002396099452174024</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.663645899341503</v>
+        <v>0.5375354770814909</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.481810556189373</v>
+        <v>2.70438943140573</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.102544812659119</v>
+        <v>1.318840838045048</v>
       </c>
       <c r="C14">
-        <v>0.9511663367516405</v>
+        <v>0.295606060199276</v>
       </c>
       <c r="D14">
-        <v>0.3440009497935392</v>
+        <v>0.1156933536947662</v>
       </c>
       <c r="E14">
-        <v>0.3329526474648148</v>
+        <v>0.1354709248889847</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007534160185879261</v>
+        <v>0.002396745826038944</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.632138344244993</v>
+        <v>0.5292339183454118</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.424170369328408</v>
+        <v>2.696732822633578</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.05611872680862</v>
+        <v>1.305541398331229</v>
       </c>
       <c r="C15">
-        <v>0.9410773403137114</v>
+        <v>0.2925557918462403</v>
       </c>
       <c r="D15">
-        <v>0.3399197070770583</v>
+        <v>0.1146509859978835</v>
       </c>
       <c r="E15">
-        <v>0.3288075384589817</v>
+        <v>0.1346360073459749</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007541346465448199</v>
+        <v>0.002397144013226277</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.612891358260143</v>
+        <v>0.5241510895333334</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.389161371416776</v>
+        <v>2.692090947804445</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.791190452349269</v>
+        <v>1.229329286213442</v>
       </c>
       <c r="C16">
-        <v>0.8834591850734341</v>
+        <v>0.2750561776374525</v>
       </c>
       <c r="D16">
-        <v>0.316708286094368</v>
+        <v>0.1086902052685446</v>
       </c>
       <c r="E16">
-        <v>0.3054259368385743</v>
+        <v>0.1298863772595737</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007582710054610891</v>
+        <v>0.002399460640483165</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.503349367054284</v>
+        <v>0.4950556960225896</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.192892441990381</v>
+        <v>2.666223918429722</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.629586292994304</v>
+        <v>1.182577592394523</v>
       </c>
       <c r="C17">
-        <v>0.8482728250359344</v>
+        <v>0.2643032605548683</v>
       </c>
       <c r="D17">
-        <v>0.302615955958629</v>
+        <v>0.1050446448827103</v>
       </c>
       <c r="E17">
-        <v>0.2913927007515511</v>
+        <v>0.1270035297142798</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007608259603279221</v>
+        <v>0.002400912921821061</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.436773345521516</v>
+        <v>0.477235189266338</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.076160264324812</v>
+        <v>2.651007484195787</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.536943985962466</v>
+        <v>1.155688195025334</v>
       </c>
       <c r="C18">
-        <v>0.8280874683563013</v>
+        <v>0.2581121112973221</v>
       </c>
       <c r="D18">
-        <v>0.2945605218361749</v>
+        <v>0.1029519002954657</v>
       </c>
       <c r="E18">
-        <v>0.2834271019831789</v>
+        <v>0.125356633689016</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007623023666748625</v>
+        <v>0.002401759695658964</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.398691431761293</v>
+        <v>0.4669957292259426</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.010287799398014</v>
+        <v>2.642494056645546</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.505627055438822</v>
+        <v>1.146584089435976</v>
       </c>
       <c r="C19">
-        <v>0.8212615865054715</v>
+        <v>0.2560148091232861</v>
       </c>
       <c r="D19">
-        <v>0.2918413327791853</v>
+        <v>0.1022440321986267</v>
       </c>
       <c r="E19">
-        <v>0.2807475381704307</v>
+        <v>0.1248009430797339</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007628034732294619</v>
+        <v>0.002402048369615046</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.385832067858118</v>
+        <v>0.4635306071228342</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.988195059692572</v>
+        <v>2.63965245219498</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.64675677868189</v>
+        <v>1.187554297626548</v>
       </c>
       <c r="C20">
-        <v>0.8520128644232727</v>
+        <v>0.2654485862025524</v>
       </c>
       <c r="D20">
-        <v>0.3041108362511409</v>
+        <v>0.1054322976249438</v>
       </c>
       <c r="E20">
-        <v>0.2928754183276894</v>
+        <v>0.1273092477529261</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007605532806801889</v>
+        <v>0.002400757138630222</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.443838246634272</v>
+        <v>0.479131132059905</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.088453518042257</v>
+        <v>2.652602576320874</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.124828366349277</v>
+        <v>1.325218301574807</v>
       </c>
       <c r="C21">
-        <v>0.9560080170670346</v>
+        <v>0.2970683949890542</v>
       </c>
       <c r="D21">
-        <v>0.3459612905626557</v>
+        <v>0.1161934212457822</v>
       </c>
       <c r="E21">
-        <v>0.3349472426277629</v>
+        <v>0.1358719127083035</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007530717214002402</v>
+        <v>0.00239655549845061</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.641381862201456</v>
+        <v>0.53167184604537</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.441038238551073</v>
+        <v>2.698971741517198</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.440687429327397</v>
+        <v>1.415193503754551</v>
       </c>
       <c r="C22">
-        <v>1.024580481391467</v>
+        <v>0.3176758123416903</v>
       </c>
       <c r="D22">
-        <v>0.373846574999618</v>
+        <v>0.123263356372135</v>
       </c>
       <c r="E22">
-        <v>0.3635689620930123</v>
+        <v>0.1415706166682824</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007482331284274438</v>
+        <v>0.002393910920298274</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.772777703378623</v>
+        <v>0.5661047210531081</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.68455630026574</v>
+        <v>2.731423202168912</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.271760853617764</v>
+        <v>1.367171911917694</v>
       </c>
       <c r="C23">
-        <v>0.9879196881310577</v>
+        <v>0.306682613366462</v>
       </c>
       <c r="D23">
-        <v>0.3589103450292583</v>
+        <v>0.1194865946258261</v>
       </c>
       <c r="E23">
-        <v>0.3481805832650551</v>
+        <v>0.1385196149155803</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007508114258241073</v>
+        <v>0.002395313129699665</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.70241842096398</v>
+        <v>0.5477185208514044</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.553296729921044</v>
+        <v>2.713905808238053</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.638993180453781</v>
+        <v>1.185304364116803</v>
       </c>
       <c r="C24">
-        <v>0.8503218577748441</v>
+        <v>0.2649308129821577</v>
       </c>
       <c r="D24">
-        <v>0.30343485717286</v>
+        <v>0.1052570300589935</v>
       </c>
       <c r="E24">
-        <v>0.2922047650151427</v>
+        <v>0.1271709999777997</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007606765355628635</v>
+        <v>0.002400827531264919</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.440643606430797</v>
+        <v>0.4782739583264259</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.082891899672376</v>
+        <v>2.651880704292978</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.967924151493264</v>
+        <v>0.98916890488033</v>
       </c>
       <c r="C25">
-        <v>0.7038619611494425</v>
+        <v>0.2196524437648861</v>
       </c>
       <c r="D25">
-        <v>0.2454704321155958</v>
+        <v>0.09006395580350102</v>
       </c>
       <c r="E25">
-        <v>0.2357954431863405</v>
+        <v>0.1153580129280201</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007715847767425639</v>
+        <v>0.002407214232089262</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.166151654167386</v>
+        <v>0.4037640928077764</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.623176622654825</v>
+        <v>2.59408816606134</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_66/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8447786353271454</v>
+        <v>2.480491820892837</v>
       </c>
       <c r="C2">
-        <v>0.1861055023120173</v>
+        <v>0.5970706306117961</v>
       </c>
       <c r="D2">
-        <v>0.0790056553439058</v>
+        <v>0.2039877406926252</v>
       </c>
       <c r="E2">
-        <v>0.1070133005347813</v>
+        <v>0.1968398499960458</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002412298101118912</v>
+        <v>0.0007798947422762696</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3492223880770027</v>
+        <v>0.9688821044716818</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.559241357825584</v>
+        <v>2.317392387370006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7469369850426801</v>
+        <v>2.15293035918279</v>
       </c>
       <c r="C3">
-        <v>0.1632408360593445</v>
+        <v>0.5250740230058</v>
       </c>
       <c r="D3">
-        <v>0.0715886933525951</v>
+        <v>0.1764384962077514</v>
       </c>
       <c r="E3">
-        <v>0.1015708116470222</v>
+        <v>0.1716891117123609</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002415983506122934</v>
+        <v>0.0007857214252241411</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3124482855449244</v>
+        <v>0.8373724032275405</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.540367486991528</v>
+        <v>2.126938426047047</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6868693826353081</v>
+        <v>1.952770061020971</v>
       </c>
       <c r="C4">
-        <v>0.1491385002046854</v>
+        <v>0.4809736621590162</v>
       </c>
       <c r="D4">
-        <v>0.0670720335749877</v>
+        <v>0.159747377189845</v>
       </c>
       <c r="E4">
-        <v>0.09833168479296006</v>
+        <v>0.1567582342279934</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002418365445566493</v>
+        <v>0.0007894015409048732</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2899595116798181</v>
+        <v>0.7574564273697675</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.531097262241502</v>
+        <v>2.017204498277209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6623939359138831</v>
+        <v>1.871391258896637</v>
       </c>
       <c r="C5">
-        <v>0.1433759593091395</v>
+        <v>0.4630184122092089</v>
       </c>
       <c r="D5">
-        <v>0.06524078403315059</v>
+        <v>0.1529946584937676</v>
       </c>
       <c r="E5">
-        <v>0.0970371897197353</v>
+        <v>0.1507882537260912</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002419366147272076</v>
+        <v>0.0007909278607922828</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2808177462020822</v>
+        <v>0.7250661283071764</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.527899745928153</v>
+        <v>1.974152177570431</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6583299836951539</v>
+        <v>1.857888226830056</v>
       </c>
       <c r="C6">
-        <v>0.1424181501443513</v>
+        <v>0.460037629300615</v>
       </c>
       <c r="D6">
-        <v>0.06493726754327156</v>
+        <v>0.151876131893971</v>
       </c>
       <c r="E6">
-        <v>0.09682376911598567</v>
+        <v>0.1498034614998645</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002419534130498324</v>
+        <v>0.0007911829385016607</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2793011216366779</v>
+        <v>0.7196974625743948</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.527403759838535</v>
+        <v>1.967099841436777</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6865392867911453</v>
+        <v>1.951671864944274</v>
       </c>
       <c r="C7">
-        <v>0.1490608479560649</v>
+        <v>0.4807314599827066</v>
       </c>
       <c r="D7">
-        <v>0.06704729903968598</v>
+        <v>0.1596561184113341</v>
       </c>
       <c r="E7">
-        <v>0.09831412405240059</v>
+        <v>0.1566772754978416</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002418378819589132</v>
+        <v>0.0007894220163971687</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2898361314247779</v>
+        <v>0.757018929223392</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.531051794047016</v>
+        <v>2.016617324200865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8110416393366791</v>
+        <v>2.367314594625384</v>
       </c>
       <c r="C8">
-        <v>0.1782350242866926</v>
+        <v>0.5722175539094678</v>
       </c>
       <c r="D8">
-        <v>0.07644048017949956</v>
+        <v>0.1944376430847683</v>
       </c>
       <c r="E8">
-        <v>0.1051152445365986</v>
+        <v>0.188052748442523</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002413544170951445</v>
+        <v>0.0007818830464190555</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.336523719514048</v>
+        <v>0.9233443114484601</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.552250758640952</v>
+        <v>2.25013676697958</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.055233440527388</v>
+        <v>3.192739474539451</v>
       </c>
       <c r="C9">
-        <v>0.2349369906712298</v>
+        <v>0.7529949402864702</v>
       </c>
       <c r="D9">
-        <v>0.09516147321394897</v>
+        <v>0.2647840061073197</v>
       </c>
       <c r="E9">
-        <v>0.1192813758646452</v>
+        <v>0.2543448009201228</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002405003900566905</v>
+        <v>0.0007678701292682286</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4288118281979081</v>
+        <v>1.257743115416858</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.612350048252438</v>
+        <v>2.772434329594773</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.234664091416676</v>
+        <v>3.809674517605515</v>
       </c>
       <c r="C10">
-        <v>0.2762822943695085</v>
+        <v>0.8874817952755052</v>
       </c>
       <c r="D10">
-        <v>0.1091067444823608</v>
+        <v>0.3183233905500629</v>
       </c>
       <c r="E10">
-        <v>0.1302168616632216</v>
+        <v>0.3070421660532361</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002399296475996046</v>
+        <v>0.0007579803647852758</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4970905578935856</v>
+        <v>1.510976050905171</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.667992631489426</v>
+        <v>3.20639007559268</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.316297573398799</v>
+        <v>4.093662157083543</v>
       </c>
       <c r="C11">
-        <v>0.2950228324378088</v>
+        <v>0.9492362000843286</v>
       </c>
       <c r="D11">
-        <v>0.1154939721189976</v>
+        <v>0.3432197781185806</v>
       </c>
       <c r="E11">
-        <v>0.1353111270698832</v>
+        <v>0.3321584721380262</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002396821837240383</v>
+        <v>0.000753553375293378</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5282618005665398</v>
+        <v>1.628454669054108</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.695842307814928</v>
+        <v>3.417458116662033</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.347211107082046</v>
+        <v>4.201778456797115</v>
       </c>
       <c r="C12">
-        <v>0.3021095396570104</v>
+        <v>0.9727233383322584</v>
       </c>
       <c r="D12">
-        <v>0.1179190041329292</v>
+        <v>0.3527378760388729</v>
       </c>
       <c r="E12">
-        <v>0.1372577730138147</v>
+        <v>0.3418600614352485</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00239590215523966</v>
+        <v>0.0007518858615022761</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5400818629507285</v>
+        <v>1.673328524215762</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.706756392010107</v>
+        <v>3.499605645033341</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.340553303561023</v>
+        <v>4.17846640452251</v>
       </c>
       <c r="C13">
-        <v>0.3005837351251728</v>
+        <v>0.9676600916525615</v>
       </c>
       <c r="D13">
-        <v>0.1173964474182156</v>
+        <v>0.3506837495398685</v>
       </c>
       <c r="E13">
-        <v>0.1368377414523039</v>
+        <v>0.3397617250680653</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002396099452174024</v>
+        <v>0.0007522446197960709</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5375354770814909</v>
+        <v>1.663645899341489</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.70438943140573</v>
+        <v>3.48181055618943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.318840838045048</v>
+        <v>4.102544812659289</v>
       </c>
       <c r="C14">
-        <v>0.295606060199276</v>
+        <v>0.9511663367513563</v>
       </c>
       <c r="D14">
-        <v>0.1156933536947662</v>
+        <v>0.3440009497935534</v>
       </c>
       <c r="E14">
-        <v>0.1354709248889847</v>
+        <v>0.3329526474648432</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002396745826038944</v>
+        <v>0.000753416018690251</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5292339183454118</v>
+        <v>1.632138344244993</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.696732822633578</v>
+        <v>3.424170369328408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.305541398331229</v>
+        <v>4.056118726808393</v>
       </c>
       <c r="C15">
-        <v>0.2925557918462403</v>
+        <v>0.9410773403133703</v>
       </c>
       <c r="D15">
-        <v>0.1146509859978835</v>
+        <v>0.3399197070770867</v>
       </c>
       <c r="E15">
-        <v>0.1346360073459749</v>
+        <v>0.3288075384589959</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002397144013226277</v>
+        <v>0.0007541346465448197</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5241510895333334</v>
+        <v>1.612891358260143</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.692090947804445</v>
+        <v>3.389161371416833</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.229329286213442</v>
+        <v>3.791190452349099</v>
       </c>
       <c r="C16">
-        <v>0.2750561776374525</v>
+        <v>0.8834591850732636</v>
       </c>
       <c r="D16">
-        <v>0.1086902052685446</v>
+        <v>0.3167082860944248</v>
       </c>
       <c r="E16">
-        <v>0.1298863772595737</v>
+        <v>0.305425936838553</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002399460640483165</v>
+        <v>0.0007582710054610695</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4950556960225896</v>
+        <v>1.503349367054284</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.666223918429722</v>
+        <v>3.192892441990438</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.182577592394523</v>
+        <v>3.629586292994304</v>
       </c>
       <c r="C17">
-        <v>0.2643032605548683</v>
+        <v>0.8482728250359628</v>
       </c>
       <c r="D17">
-        <v>0.1050446448827103</v>
+        <v>0.302615955958629</v>
       </c>
       <c r="E17">
-        <v>0.1270035297142798</v>
+        <v>0.2913927007515582</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002400912921821061</v>
+        <v>0.0007608259603286276</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.477235189266338</v>
+        <v>1.436773345521544</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.651007484195787</v>
+        <v>3.076160264324898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.155688195025334</v>
+        <v>3.536943985962353</v>
       </c>
       <c r="C18">
-        <v>0.2581121112973221</v>
+        <v>0.8280874683561876</v>
       </c>
       <c r="D18">
-        <v>0.1029519002954657</v>
+        <v>0.2945605218361749</v>
       </c>
       <c r="E18">
-        <v>0.125356633689016</v>
+        <v>0.2834271019831647</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002401759695658964</v>
+        <v>0.0007623023667439949</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4669957292259426</v>
+        <v>1.398691431761279</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.642494056645546</v>
+        <v>3.010287799398014</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.146584089435976</v>
+        <v>3.505627055438822</v>
       </c>
       <c r="C19">
-        <v>0.2560148091232861</v>
+        <v>0.8212615865051305</v>
       </c>
       <c r="D19">
-        <v>0.1022440321986267</v>
+        <v>0.2918413327793417</v>
       </c>
       <c r="E19">
-        <v>0.1248009430797339</v>
+        <v>0.2807475381703881</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002402048369615046</v>
+        <v>0.0007628034732580443</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4635306071228342</v>
+        <v>1.385832067858118</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.63965245219498</v>
+        <v>2.988195059692572</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.187554297626548</v>
+        <v>3.64675677868189</v>
       </c>
       <c r="C20">
-        <v>0.2654485862025524</v>
+        <v>0.852012864423358</v>
       </c>
       <c r="D20">
-        <v>0.1054322976249438</v>
+        <v>0.3041108362512261</v>
       </c>
       <c r="E20">
-        <v>0.1273092477529261</v>
+        <v>0.2928754183276467</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002400757138630222</v>
+        <v>0.0007605532806463922</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.479131132059905</v>
+        <v>1.4438382466343</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.652602576320874</v>
+        <v>3.088453518042257</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.325218301574807</v>
+        <v>4.124828366349334</v>
       </c>
       <c r="C21">
-        <v>0.2970683949890542</v>
+        <v>0.9560080170671483</v>
       </c>
       <c r="D21">
-        <v>0.1161934212457822</v>
+        <v>0.3459612905625846</v>
       </c>
       <c r="E21">
-        <v>0.1358719127083035</v>
+        <v>0.3349472426277629</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00239655549845061</v>
+        <v>0.0007530717214000715</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.53167184604537</v>
+        <v>1.641381862201456</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.698971741517198</v>
+        <v>3.441038238551016</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.415193503754551</v>
+        <v>4.44068742932734</v>
       </c>
       <c r="C22">
-        <v>0.3176758123416903</v>
+        <v>1.024580481391524</v>
       </c>
       <c r="D22">
-        <v>0.123263356372135</v>
+        <v>0.3738465749998312</v>
       </c>
       <c r="E22">
-        <v>0.1415706166682824</v>
+        <v>0.3635689620930407</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002393910920298274</v>
+        <v>0.0007482331284655244</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5661047210531081</v>
+        <v>1.772777703378637</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.731423202168912</v>
+        <v>3.684556300265797</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.367171911917694</v>
+        <v>4.271760853617536</v>
       </c>
       <c r="C23">
-        <v>0.306682613366462</v>
+        <v>0.9879196881310861</v>
       </c>
       <c r="D23">
-        <v>0.1194865946258261</v>
+        <v>0.3589103450296136</v>
       </c>
       <c r="E23">
-        <v>0.1385196149155803</v>
+        <v>0.3481805832650551</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002395313129699665</v>
+        <v>0.0007508114258606377</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5477185208514044</v>
+        <v>1.702418420963966</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.713905808238053</v>
+        <v>3.553296729920987</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.185304364116803</v>
+        <v>3.638993180453781</v>
       </c>
       <c r="C24">
-        <v>0.2649308129821577</v>
+        <v>0.850321857774901</v>
       </c>
       <c r="D24">
-        <v>0.1052570300589935</v>
+        <v>0.3034348571727321</v>
       </c>
       <c r="E24">
-        <v>0.1271709999777997</v>
+        <v>0.2922047650151569</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002400827531264919</v>
+        <v>0.0007606765355918883</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4782739583264259</v>
+        <v>1.440643606430797</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.651880704292978</v>
+        <v>3.082891899672376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.98916890488033</v>
+        <v>2.96792415149315</v>
       </c>
       <c r="C25">
-        <v>0.2196524437648861</v>
+        <v>0.7038619611493573</v>
       </c>
       <c r="D25">
-        <v>0.09006395580350102</v>
+        <v>0.2454704321155674</v>
       </c>
       <c r="E25">
-        <v>0.1153580129280201</v>
+        <v>0.2357954431863334</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002407214232089262</v>
+        <v>0.0007715847767411633</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4037640928077764</v>
+        <v>1.166151654167379</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.59408816606134</v>
+        <v>2.623176622654768</v>
       </c>
     </row>
   </sheetData>
